--- a/FRONT_LACARDIO/public/file/pacientes_ejemplo.xlsx
+++ b/FRONT_LACARDIO/public/file/pacientes_ejemplo.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57322\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57322\Desktop\PRUEBA_LACARDIO\FRONT_LACARDIO\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5C96EA-7E98-4302-9A05-9A9C41147548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E2F259-8BDE-4855-9E9B-1A01FC16D7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pacientes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="338">
   <si>
     <t>tipo_documento</t>
   </si>
@@ -82,723 +82,968 @@
     <t>CC</t>
   </si>
   <si>
-    <t>5551</t>
-  </si>
-  <si>
-    <t>5552</t>
+    <t>55747</t>
+  </si>
+  <si>
+    <t>Juan Diego</t>
+  </si>
+  <si>
+    <t>Torres Hernández</t>
+  </si>
+  <si>
+    <t>1991-09-16</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>juan@correo.com</t>
+  </si>
+  <si>
+    <t>3005252860</t>
+  </si>
+  <si>
+    <t>Calle 14 #44-76</t>
+  </si>
+  <si>
+    <t>Diego Ramírez</t>
+  </si>
+  <si>
+    <t>3014094041</t>
+  </si>
+  <si>
+    <t>Alergia medicamentos</t>
+  </si>
+  <si>
+    <t>Hipertensión</t>
+  </si>
+  <si>
+    <t>Paciente generado automáticamente</t>
+  </si>
+  <si>
+    <t>55432</t>
+  </si>
+  <si>
+    <t>Pedro Ana</t>
+  </si>
+  <si>
+    <t>Hernández Ramírez</t>
+  </si>
+  <si>
+    <t>2000-11-22</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>pedro@correo.com</t>
+  </si>
+  <si>
+    <t>3005623150</t>
+  </si>
+  <si>
+    <t>Calle 29 #14-59</t>
+  </si>
+  <si>
+    <t>Carlos Pérez</t>
+  </si>
+  <si>
+    <t>3015435579</t>
+  </si>
+  <si>
+    <t>No conocidas</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>55707</t>
+  </si>
+  <si>
+    <t>Juan Juan</t>
+  </si>
+  <si>
+    <t>López Martínez</t>
+  </si>
+  <si>
+    <t>1995-01-22</t>
+  </si>
+  <si>
+    <t>3003708192</t>
+  </si>
+  <si>
+    <t>Calle 24 #40-67</t>
+  </si>
+  <si>
+    <t>Sofía Torres</t>
+  </si>
+  <si>
+    <t>3019125917</t>
+  </si>
+  <si>
+    <t>55715</t>
+  </si>
+  <si>
+    <t>Camilo Sofía</t>
+  </si>
+  <si>
+    <t>López Hernández</t>
+  </si>
+  <si>
+    <t>1981-03-03</t>
+  </si>
+  <si>
+    <t>camilo@correo.com</t>
+  </si>
+  <si>
+    <t>3002759975</t>
+  </si>
+  <si>
+    <t>Calle 23 #24-28</t>
+  </si>
+  <si>
+    <t>Camilo López</t>
+  </si>
+  <si>
+    <t>3018217265</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>55793</t>
+  </si>
+  <si>
+    <t>Valentina Pedro</t>
+  </si>
+  <si>
+    <t>Ramírez Torres</t>
+  </si>
+  <si>
+    <t>1971-05-13</t>
+  </si>
+  <si>
+    <t>valentina@correo.com</t>
+  </si>
+  <si>
+    <t>3003669566</t>
+  </si>
+  <si>
+    <t>Calle 8 #20-12</t>
+  </si>
+  <si>
+    <t>Luisa Rodríguez</t>
+  </si>
+  <si>
+    <t>3015593737</t>
+  </si>
+  <si>
+    <t>Asma</t>
+  </si>
+  <si>
+    <t>5537</t>
+  </si>
+  <si>
+    <t>Carlos Camilo</t>
+  </si>
+  <si>
+    <t>Martínez López</t>
+  </si>
+  <si>
+    <t>2000-07-13</t>
+  </si>
+  <si>
+    <t>carlos@correo.com</t>
+  </si>
+  <si>
+    <t>3008376230</t>
+  </si>
+  <si>
+    <t>Calle 22 #41-40</t>
+  </si>
+  <si>
+    <t>Ana López</t>
+  </si>
+  <si>
+    <t>3016112704</t>
+  </si>
+  <si>
+    <t>55618</t>
+  </si>
+  <si>
+    <t>Ramírez López</t>
+  </si>
+  <si>
+    <t>1987-07-17</t>
+  </si>
+  <si>
+    <t>3004549581</t>
+  </si>
+  <si>
+    <t>Calle 4 #27-20</t>
+  </si>
+  <si>
+    <t>Valentina Pérez</t>
+  </si>
+  <si>
+    <t>3014450963</t>
+  </si>
+  <si>
+    <t>55988</t>
+  </si>
+  <si>
+    <t>Luisa Andrés</t>
+  </si>
+  <si>
+    <t>Gómez Hernández</t>
+  </si>
+  <si>
+    <t>1975-10-07</t>
+  </si>
+  <si>
+    <t>luisa@correo.com</t>
+  </si>
+  <si>
+    <t>3008956799</t>
+  </si>
+  <si>
+    <t>Calle 25 #32-28</t>
+  </si>
+  <si>
+    <t>Pedro Rodríguez</t>
+  </si>
+  <si>
+    <t>3015752142</t>
+  </si>
+  <si>
+    <t>55490</t>
+  </si>
+  <si>
+    <t>Camilo Carlos</t>
+  </si>
+  <si>
+    <t>Rodríguez Ramírez</t>
+  </si>
+  <si>
+    <t>1972-08-02</t>
+  </si>
+  <si>
+    <t>3007402866</t>
+  </si>
+  <si>
+    <t>Calle 5 #25-18</t>
+  </si>
+  <si>
+    <t>Pedro Torres</t>
+  </si>
+  <si>
+    <t>3018287524</t>
+  </si>
+  <si>
+    <t>55457</t>
+  </si>
+  <si>
+    <t>Valentina Sofía</t>
+  </si>
+  <si>
+    <t>Gómez Gómez</t>
+  </si>
+  <si>
+    <t>1971-10-06</t>
+  </si>
+  <si>
+    <t>3005536264</t>
+  </si>
+  <si>
+    <t>Calle 36 #48-70</t>
+  </si>
+  <si>
+    <t>Carlos López</t>
+  </si>
+  <si>
+    <t>3012915107</t>
+  </si>
+  <si>
+    <t>Alergia polen</t>
+  </si>
+  <si>
+    <t>55683</t>
+  </si>
+  <si>
+    <t>Carlos Sofía</t>
+  </si>
+  <si>
+    <t>Pérez Gómez</t>
+  </si>
+  <si>
+    <t>1995-10-10</t>
+  </si>
+  <si>
+    <t>3005418086</t>
+  </si>
+  <si>
+    <t>Calle 4 #30-79</t>
+  </si>
+  <si>
+    <t>Juan Rodríguez</t>
+  </si>
+  <si>
+    <t>3013727109</t>
+  </si>
+  <si>
+    <t>55201</t>
+  </si>
+  <si>
+    <t>Carlos Luisa</t>
+  </si>
+  <si>
+    <t>Hernández Gómez</t>
+  </si>
+  <si>
+    <t>1989-02-13</t>
+  </si>
+  <si>
+    <t>3001925475</t>
+  </si>
+  <si>
+    <t>Calle 12 #46-23</t>
+  </si>
+  <si>
+    <t>Sofía Martínez</t>
+  </si>
+  <si>
+    <t>3016377445</t>
+  </si>
+  <si>
+    <t>55347</t>
+  </si>
+  <si>
+    <t>Diego Ana</t>
+  </si>
+  <si>
+    <t>Gómez Pérez</t>
+  </si>
+  <si>
+    <t>1975-03-07</t>
+  </si>
+  <si>
+    <t>diego@correo.com</t>
+  </si>
+  <si>
+    <t>3003188583</t>
+  </si>
+  <si>
+    <t>Calle 20 #41-68</t>
+  </si>
+  <si>
+    <t>Diego Hernández</t>
+  </si>
+  <si>
+    <t>3012617883</t>
+  </si>
+  <si>
+    <t>55482</t>
+  </si>
+  <si>
+    <t>Juan Valentina</t>
+  </si>
+  <si>
+    <t>Ramírez Ramírez</t>
+  </si>
+  <si>
+    <t>1983-07-16</t>
+  </si>
+  <si>
+    <t>3004373073</t>
+  </si>
+  <si>
+    <t>Calle 17 #33-19</t>
+  </si>
+  <si>
+    <t>Andrés Pérez</t>
+  </si>
+  <si>
+    <t>3015154490</t>
+  </si>
+  <si>
+    <t>55650</t>
+  </si>
+  <si>
+    <t>Sofía Luisa</t>
+  </si>
+  <si>
+    <t>1992-03-07</t>
+  </si>
+  <si>
+    <t>sofía@correo.com</t>
+  </si>
+  <si>
+    <t>3007980738</t>
+  </si>
+  <si>
+    <t>Calle 18 #42-40</t>
+  </si>
+  <si>
+    <t>Camilo Torres</t>
+  </si>
+  <si>
+    <t>3017307417</t>
+  </si>
+  <si>
+    <t>55958</t>
+  </si>
+  <si>
+    <t>Pedro Carlos</t>
+  </si>
+  <si>
+    <t>1975-04-17</t>
+  </si>
+  <si>
+    <t>3004851723</t>
+  </si>
+  <si>
+    <t>Calle 7 #11-16</t>
+  </si>
+  <si>
+    <t>3015457427</t>
+  </si>
+  <si>
+    <t>55298</t>
+  </si>
+  <si>
+    <t>Carlos Carlos</t>
+  </si>
+  <si>
+    <t>López Ramírez</t>
+  </si>
+  <si>
+    <t>1979-05-02</t>
+  </si>
+  <si>
+    <t>3009394303</t>
+  </si>
+  <si>
+    <t>Calle 24 #46-23</t>
+  </si>
+  <si>
+    <t>Luisa Hernández</t>
+  </si>
+  <si>
+    <t>3019091853</t>
+  </si>
+  <si>
+    <t>55826</t>
+  </si>
+  <si>
+    <t>Pedro Diego</t>
+  </si>
+  <si>
+    <t>1989-11-21</t>
+  </si>
+  <si>
+    <t>3001461819</t>
+  </si>
+  <si>
+    <t>Calle 3 #45-37</t>
+  </si>
+  <si>
+    <t>3015721988</t>
+  </si>
+  <si>
+    <t>55236</t>
+  </si>
+  <si>
+    <t>Camilo Diego</t>
+  </si>
+  <si>
+    <t>López Rodríguez</t>
+  </si>
+  <si>
+    <t>1997-09-27</t>
+  </si>
+  <si>
+    <t>3007990371</t>
+  </si>
+  <si>
+    <t>Calle 4 #34-32</t>
+  </si>
+  <si>
+    <t>Diego Torres</t>
+  </si>
+  <si>
+    <t>3017600013</t>
+  </si>
+  <si>
+    <t>55899</t>
+  </si>
+  <si>
+    <t>Valentina Luisa</t>
+  </si>
+  <si>
+    <t>1975-08-01</t>
+  </si>
+  <si>
+    <t>3004419905</t>
+  </si>
+  <si>
+    <t>Calle 34 #27-54</t>
+  </si>
+  <si>
+    <t>Andrés Hernández</t>
+  </si>
+  <si>
+    <t>3015873760</t>
+  </si>
+  <si>
+    <t>5533</t>
+  </si>
+  <si>
+    <t>Rodríguez Gómez</t>
+  </si>
+  <si>
+    <t>2000-12-19</t>
+  </si>
+  <si>
+    <t>3003518258</t>
+  </si>
+  <si>
+    <t>Calle 40 #12-41</t>
+  </si>
+  <si>
+    <t>Camilo Rodríguez</t>
+  </si>
+  <si>
+    <t>3015095883</t>
+  </si>
+  <si>
+    <t>55565</t>
+  </si>
+  <si>
+    <t>Pedro Camilo</t>
+  </si>
+  <si>
+    <t>López Torres</t>
+  </si>
+  <si>
+    <t>1985-10-01</t>
+  </si>
+  <si>
+    <t>3003588836</t>
+  </si>
+  <si>
+    <t>Calle 39 #12-33</t>
+  </si>
+  <si>
+    <t>3016751733</t>
+  </si>
+  <si>
+    <t>55744</t>
+  </si>
+  <si>
+    <t>Pedro Sofía</t>
+  </si>
+  <si>
+    <t>1970-12-01</t>
+  </si>
+  <si>
+    <t>3002932734</t>
+  </si>
+  <si>
+    <t>Calle 18 #37-68</t>
+  </si>
+  <si>
+    <t>Ana Torres</t>
+  </si>
+  <si>
+    <t>3019715525</t>
+  </si>
+  <si>
+    <t>55407</t>
+  </si>
+  <si>
+    <t>Valentina Valentina</t>
+  </si>
+  <si>
+    <t>Martínez Hernández</t>
+  </si>
+  <si>
+    <t>1998-06-20</t>
+  </si>
+  <si>
+    <t>3008460025</t>
+  </si>
+  <si>
+    <t>Calle 28 #17-47</t>
+  </si>
+  <si>
+    <t>3015456288</t>
+  </si>
+  <si>
+    <t>55929</t>
+  </si>
+  <si>
+    <t>Juan Luisa</t>
+  </si>
+  <si>
+    <t>Torres Ramírez</t>
+  </si>
+  <si>
+    <t>2000-06-13</t>
+  </si>
+  <si>
+    <t>3003538563</t>
+  </si>
+  <si>
+    <t>Calle 5 #22-55</t>
+  </si>
+  <si>
+    <t>Pedro Pérez</t>
+  </si>
+  <si>
+    <t>3018632907</t>
+  </si>
+  <si>
+    <t>5523</t>
+  </si>
+  <si>
+    <t>Carlos Andrés</t>
+  </si>
+  <si>
+    <t>1991-05-21</t>
+  </si>
+  <si>
+    <t>3001496689</t>
+  </si>
+  <si>
+    <t>Calle 5 #16-75</t>
+  </si>
+  <si>
+    <t>Pedro Hernández</t>
+  </si>
+  <si>
+    <t>3016153072</t>
+  </si>
+  <si>
+    <t>55950</t>
+  </si>
+  <si>
+    <t>Sofía Ana</t>
+  </si>
+  <si>
+    <t>López Gómez</t>
+  </si>
+  <si>
+    <t>2003-05-05</t>
+  </si>
+  <si>
+    <t>3005724961</t>
+  </si>
+  <si>
+    <t>Calle 37 #21-40</t>
+  </si>
+  <si>
+    <t>Ana Martínez</t>
+  </si>
+  <si>
+    <t>3011753081</t>
+  </si>
+  <si>
+    <t>55668</t>
+  </si>
+  <si>
+    <t>Diego Diego</t>
+  </si>
+  <si>
+    <t>Ramírez Hernández</t>
+  </si>
+  <si>
+    <t>1982-11-21</t>
+  </si>
+  <si>
+    <t>3001639050</t>
+  </si>
+  <si>
+    <t>Calle 39 #45-47</t>
+  </si>
+  <si>
+    <t>3013370997</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>Carlos Diego</t>
+  </si>
+  <si>
+    <t>Gómez López</t>
+  </si>
+  <si>
+    <t>1982-08-03</t>
+  </si>
+  <si>
+    <t>3005188843</t>
+  </si>
+  <si>
+    <t>Calle 6 #19-29</t>
+  </si>
+  <si>
+    <t>3014065879</t>
+  </si>
+  <si>
+    <t>55577</t>
+  </si>
+  <si>
+    <t>Diego Luisa</t>
+  </si>
+  <si>
+    <t>Rodríguez Martínez</t>
+  </si>
+  <si>
+    <t>1987-11-16</t>
+  </si>
+  <si>
+    <t>3006834449</t>
+  </si>
+  <si>
+    <t>Calle 40 #45-47</t>
+  </si>
+  <si>
+    <t>Andrés López</t>
+  </si>
+  <si>
+    <t>3014634997</t>
+  </si>
+  <si>
+    <t>55818</t>
+  </si>
+  <si>
+    <t>Andrés Pedro</t>
+  </si>
+  <si>
+    <t>Hernández Hernández</t>
+  </si>
+  <si>
+    <t>1974-05-22</t>
+  </si>
+  <si>
+    <t>andrés@correo.com</t>
+  </si>
+  <si>
+    <t>3006822361</t>
+  </si>
+  <si>
+    <t>Calle 24 #19-29</t>
+  </si>
+  <si>
+    <t>Juan López</t>
+  </si>
+  <si>
+    <t>3013184081</t>
+  </si>
+  <si>
+    <t>55638</t>
+  </si>
+  <si>
+    <t>Luisa Luisa</t>
+  </si>
+  <si>
+    <t>Gómez Martínez</t>
+  </si>
+  <si>
+    <t>1971-05-06</t>
+  </si>
+  <si>
+    <t>3005921515</t>
+  </si>
+  <si>
+    <t>Calle 40 #33-21</t>
+  </si>
+  <si>
+    <t>3016284134</t>
+  </si>
+  <si>
+    <t>55300</t>
+  </si>
+  <si>
+    <t>Camilo Valentina</t>
+  </si>
+  <si>
+    <t>Pérez Rodríguez</t>
+  </si>
+  <si>
+    <t>1992-09-13</t>
+  </si>
+  <si>
+    <t>3006892394</t>
+  </si>
+  <si>
+    <t>Calle 9 #31-67</t>
+  </si>
+  <si>
+    <t>Juan Hernández</t>
+  </si>
+  <si>
+    <t>3018475952</t>
+  </si>
+  <si>
+    <t>55351</t>
+  </si>
+  <si>
+    <t>1988-03-24</t>
+  </si>
+  <si>
+    <t>3008229992</t>
+  </si>
+  <si>
+    <t>Calle 21 #22-28</t>
+  </si>
+  <si>
+    <t>Carlos Rodríguez</t>
+  </si>
+  <si>
+    <t>3017504808</t>
+  </si>
+  <si>
+    <t>55265</t>
+  </si>
+  <si>
+    <t>Andrés Andrés</t>
+  </si>
+  <si>
+    <t>Martínez Rodríguez</t>
+  </si>
+  <si>
+    <t>1979-08-09</t>
+  </si>
+  <si>
+    <t>3002405227</t>
+  </si>
+  <si>
+    <t>Calle 10 #22-30</t>
+  </si>
+  <si>
+    <t>Andrés Martínez</t>
+  </si>
+  <si>
+    <t>3012606655</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>Valentina Diego</t>
+  </si>
+  <si>
+    <t>1985-11-04</t>
+  </si>
+  <si>
+    <t>3007803426</t>
+  </si>
+  <si>
+    <t>Calle 13 #46-19</t>
+  </si>
+  <si>
+    <t>Pedro Ramírez</t>
+  </si>
+  <si>
+    <t>3011140700</t>
+  </si>
+  <si>
+    <t>55369</t>
+  </si>
+  <si>
+    <t>1982-09-15</t>
+  </si>
+  <si>
+    <t>3005074851</t>
+  </si>
+  <si>
+    <t>Calle 16 #44-40</t>
+  </si>
+  <si>
+    <t>Juan Ramírez</t>
+  </si>
+  <si>
+    <t>3014503808</t>
+  </si>
+  <si>
+    <t>55632</t>
   </si>
   <si>
     <t>Juan Carlos</t>
   </si>
   <si>
-    <t>Pérez Rodríguez</t>
-  </si>
-  <si>
-    <t>1990-05-10</t>
-  </si>
-  <si>
-    <t>1985-08-15</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>juan@correo.com</t>
+    <t>Torres Martínez</t>
+  </si>
+  <si>
+    <t>1989-10-17</t>
+  </si>
+  <si>
+    <t>3006694952</t>
+  </si>
+  <si>
+    <t>Calle 22 #10-53</t>
+  </si>
+  <si>
+    <t>3015188462</t>
+  </si>
+  <si>
+    <t>55435</t>
+  </si>
+  <si>
+    <t>Ana Andrés</t>
+  </si>
+  <si>
+    <t>2004-01-01</t>
   </si>
   <si>
     <t>ana@correo.com</t>
   </si>
   <si>
-    <t>3001234567</t>
-  </si>
-  <si>
-    <t>3009876543</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-30</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-40</t>
-  </si>
-  <si>
-    <t>María Pérez</t>
-  </si>
-  <si>
-    <t>Carlos Gómez</t>
-  </si>
-  <si>
-    <t>3012223344</t>
-  </si>
-  <si>
-    <t>3015556677</t>
-  </si>
-  <si>
-    <t>No conocidas</t>
-  </si>
-  <si>
-    <t>Alergia polen</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>Asma</t>
-  </si>
-  <si>
-    <t>Paciente sin antecedentes clínicos</t>
-  </si>
-  <si>
-    <t>Paciente asmático leve</t>
-  </si>
-  <si>
-    <t>5553</t>
-  </si>
-  <si>
-    <t>1990-05-11</t>
-  </si>
-  <si>
-    <t>3018518519</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-31</t>
-  </si>
-  <si>
-    <t>3018890010</t>
-  </si>
-  <si>
-    <t>5554</t>
-  </si>
-  <si>
-    <t>1985-08-16</t>
-  </si>
-  <si>
-    <t>3027160495</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-41</t>
-  </si>
-  <si>
-    <t>3022223343</t>
-  </si>
-  <si>
-    <t>5555</t>
-  </si>
-  <si>
-    <t>1990-05-12</t>
-  </si>
-  <si>
-    <t>3035802471</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-32</t>
-  </si>
-  <si>
-    <t>3025556676</t>
-  </si>
-  <si>
-    <t>5556</t>
-  </si>
-  <si>
-    <t>1985-08-17</t>
-  </si>
-  <si>
-    <t>3044444447</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-42</t>
-  </si>
-  <si>
-    <t>3028890009</t>
-  </si>
-  <si>
-    <t>5557</t>
-  </si>
-  <si>
-    <t>1990-05-13</t>
-  </si>
-  <si>
-    <t>3053086423</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-33</t>
-  </si>
-  <si>
-    <t>3032223342</t>
-  </si>
-  <si>
-    <t>5558</t>
-  </si>
-  <si>
-    <t>1985-08-18</t>
-  </si>
-  <si>
-    <t>3061728399</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-43</t>
-  </si>
-  <si>
-    <t>3035556675</t>
-  </si>
-  <si>
-    <t>5559</t>
-  </si>
-  <si>
-    <t>1990-05-14</t>
-  </si>
-  <si>
-    <t>3070370375</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-34</t>
-  </si>
-  <si>
-    <t>3038890008</t>
-  </si>
-  <si>
-    <t>5560</t>
-  </si>
-  <si>
-    <t>1985-08-19</t>
-  </si>
-  <si>
-    <t>3079012351</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-44</t>
-  </si>
-  <si>
-    <t>3042223341</t>
-  </si>
-  <si>
-    <t>5561</t>
-  </si>
-  <si>
-    <t>1990-05-15</t>
-  </si>
-  <si>
-    <t>3087654327</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-35</t>
-  </si>
-  <si>
-    <t>3045556674</t>
-  </si>
-  <si>
-    <t>5562</t>
-  </si>
-  <si>
-    <t>1985-08-20</t>
-  </si>
-  <si>
-    <t>3096296303</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-45</t>
-  </si>
-  <si>
-    <t>3048890007</t>
-  </si>
-  <si>
-    <t>5563</t>
-  </si>
-  <si>
-    <t>1990-05-16</t>
-  </si>
-  <si>
-    <t>3104938279</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-36</t>
-  </si>
-  <si>
-    <t>3052223340</t>
-  </si>
-  <si>
-    <t>5564</t>
-  </si>
-  <si>
-    <t>1985-08-21</t>
-  </si>
-  <si>
-    <t>3113580255</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-46</t>
-  </si>
-  <si>
-    <t>3055556673</t>
-  </si>
-  <si>
-    <t>5565</t>
-  </si>
-  <si>
-    <t>1990-05-17</t>
-  </si>
-  <si>
-    <t>3122222231</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-37</t>
-  </si>
-  <si>
-    <t>3058890006</t>
-  </si>
-  <si>
-    <t>5566</t>
-  </si>
-  <si>
-    <t>1985-08-22</t>
-  </si>
-  <si>
-    <t>3130864207</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-47</t>
-  </si>
-  <si>
-    <t>3062223339</t>
-  </si>
-  <si>
-    <t>5567</t>
-  </si>
-  <si>
-    <t>1990-05-18</t>
-  </si>
-  <si>
-    <t>3139506183</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-38</t>
-  </si>
-  <si>
-    <t>3065556672</t>
-  </si>
-  <si>
-    <t>5568</t>
-  </si>
-  <si>
-    <t>1985-08-23</t>
-  </si>
-  <si>
-    <t>3148148159</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-48</t>
-  </si>
-  <si>
-    <t>3068890005</t>
-  </si>
-  <si>
-    <t>5569</t>
-  </si>
-  <si>
-    <t>1990-05-19</t>
-  </si>
-  <si>
-    <t>3156790135</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-39</t>
-  </si>
-  <si>
-    <t>3072223338</t>
-  </si>
-  <si>
-    <t>5570</t>
-  </si>
-  <si>
-    <t>1985-08-24</t>
-  </si>
-  <si>
-    <t>3165432111</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-49</t>
-  </si>
-  <si>
-    <t>3075556671</t>
-  </si>
-  <si>
-    <t>5571</t>
-  </si>
-  <si>
-    <t>1990-05-20</t>
-  </si>
-  <si>
-    <t>3174074087</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-40</t>
-  </si>
-  <si>
-    <t>3078890004</t>
-  </si>
-  <si>
-    <t>5572</t>
-  </si>
-  <si>
-    <t>1985-08-25</t>
-  </si>
-  <si>
-    <t>3182716063</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-50</t>
-  </si>
-  <si>
-    <t>3082223337</t>
-  </si>
-  <si>
-    <t>5573</t>
-  </si>
-  <si>
-    <t>1990-05-21</t>
-  </si>
-  <si>
-    <t>3191358039</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-41</t>
-  </si>
-  <si>
-    <t>3085556670</t>
-  </si>
-  <si>
-    <t>5574</t>
-  </si>
-  <si>
-    <t>1985-08-26</t>
-  </si>
-  <si>
-    <t>3200000015</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-51</t>
-  </si>
-  <si>
-    <t>3088890003</t>
-  </si>
-  <si>
-    <t>5575</t>
-  </si>
-  <si>
-    <t>1990-05-22</t>
-  </si>
-  <si>
-    <t>3208641991</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-42</t>
-  </si>
-  <si>
-    <t>3092223336</t>
-  </si>
-  <si>
-    <t>5576</t>
-  </si>
-  <si>
-    <t>1985-08-27</t>
-  </si>
-  <si>
-    <t>3217283967</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-52</t>
-  </si>
-  <si>
-    <t>3095556669</t>
-  </si>
-  <si>
-    <t>5577</t>
-  </si>
-  <si>
-    <t>1990-05-23</t>
-  </si>
-  <si>
-    <t>3225925943</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-43</t>
-  </si>
-  <si>
-    <t>3098890002</t>
-  </si>
-  <si>
-    <t>5578</t>
-  </si>
-  <si>
-    <t>1985-08-28</t>
-  </si>
-  <si>
-    <t>3234567919</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-53</t>
-  </si>
-  <si>
-    <t>3102223335</t>
-  </si>
-  <si>
-    <t>5579</t>
-  </si>
-  <si>
-    <t>1990-05-24</t>
-  </si>
-  <si>
-    <t>3243209895</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-44</t>
-  </si>
-  <si>
-    <t>3105556668</t>
-  </si>
-  <si>
-    <t>5580</t>
-  </si>
-  <si>
-    <t>1985-08-29</t>
-  </si>
-  <si>
-    <t>3251851871</t>
-  </si>
-  <si>
-    <t>Calle 15 #30-54</t>
-  </si>
-  <si>
-    <t>3108890001</t>
-  </si>
-  <si>
-    <t>5581</t>
-  </si>
-  <si>
-    <t>1990-05-25</t>
-  </si>
-  <si>
-    <t>3260493847</t>
-  </si>
-  <si>
-    <t>Calle 10 #20-45</t>
-  </si>
-  <si>
-    <t>3112223334</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre1</t>
-  </si>
-  <si>
-    <t>apellido1 apellido1</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre2</t>
-  </si>
-  <si>
-    <t>apellido1 apellido2</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre3</t>
-  </si>
-  <si>
-    <t>apellido1 apellido3</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre4</t>
-  </si>
-  <si>
-    <t>apellido1 apellido4</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre5</t>
-  </si>
-  <si>
-    <t>apellido1 apellido5</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre6</t>
-  </si>
-  <si>
-    <t>apellido1 apellido6</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre7</t>
-  </si>
-  <si>
-    <t>apellido1 apellido7</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre8</t>
-  </si>
-  <si>
-    <t>apellido1 apellido8</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre9</t>
-  </si>
-  <si>
-    <t>apellido1 apellido9</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre10</t>
-  </si>
-  <si>
-    <t>apellido1 apellido10</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre11</t>
-  </si>
-  <si>
-    <t>apellido1 apellido11</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre12</t>
-  </si>
-  <si>
-    <t>apellido1 apellido12</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre13</t>
-  </si>
-  <si>
-    <t>apellido1 apellido13</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre14</t>
-  </si>
-  <si>
-    <t>apellido1 apellido14</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre15</t>
-  </si>
-  <si>
-    <t>apellido1 apellido15</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre16</t>
-  </si>
-  <si>
-    <t>apellido1 apellido16</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre17</t>
-  </si>
-  <si>
-    <t>apellido1 apellido17</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre18</t>
-  </si>
-  <si>
-    <t>apellido1 apellido18</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre19</t>
-  </si>
-  <si>
-    <t>apellido1 apellido19</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre20</t>
-  </si>
-  <si>
-    <t>apellido1 apellido20</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre21</t>
-  </si>
-  <si>
-    <t>apellido1 apellido21</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre22</t>
-  </si>
-  <si>
-    <t>apellido1 apellido22</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre23</t>
-  </si>
-  <si>
-    <t>apellido1 apellido23</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre24</t>
-  </si>
-  <si>
-    <t>apellido1 apellido24</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre25</t>
-  </si>
-  <si>
-    <t>apellido1 apellido25</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre26</t>
-  </si>
-  <si>
-    <t>apellido1 apellido26</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre27</t>
-  </si>
-  <si>
-    <t>apellido1 apellido27</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre28</t>
-  </si>
-  <si>
-    <t>apellido1 apellido28</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre29</t>
-  </si>
-  <si>
-    <t>apellido1 apellido29</t>
-  </si>
-  <si>
-    <t>Nombre1 Nombre30</t>
-  </si>
-  <si>
-    <t>apellido1 apellido30</t>
+    <t>3002530207</t>
+  </si>
+  <si>
+    <t>Calle 22 #47-79</t>
+  </si>
+  <si>
+    <t>Luisa Pérez</t>
+  </si>
+  <si>
+    <t>3018056357</t>
+  </si>
+  <si>
+    <t>55146</t>
+  </si>
+  <si>
+    <t>Ana Diego</t>
+  </si>
+  <si>
+    <t>Martínez Pérez</t>
+  </si>
+  <si>
+    <t>1994-02-18</t>
+  </si>
+  <si>
+    <t>3009464598</t>
+  </si>
+  <si>
+    <t>Calle 37 #46-65</t>
+  </si>
+  <si>
+    <t>Diego Martínez</t>
+  </si>
+  <si>
+    <t>3013993300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -812,7 +1057,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -820,35 +1065,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -865,9 +1089,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -905,7 +1129,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -939,7 +1163,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -974,10 +1197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1151,76 +1373,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1232,55 +1446,55 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>2000000</v>
+        <v>4216847</v>
       </c>
       <c r="K2">
-        <v>900000</v>
+        <v>2169691</v>
       </c>
       <c r="L2">
-        <v>300000</v>
+        <v>1528147</v>
       </c>
       <c r="M2">
-        <v>800000</v>
+        <v>1894341.3</v>
       </c>
       <c r="N2">
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1288,58 +1502,58 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>2500000</v>
+        <v>4789867</v>
       </c>
       <c r="K3">
-        <v>1000000</v>
+        <v>876293</v>
       </c>
       <c r="L3">
-        <v>500000</v>
+        <v>654098</v>
       </c>
       <c r="M3">
-        <v>1000000</v>
+        <v>3848164.2</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1347,58 +1561,58 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>3000000</v>
+        <v>3936564</v>
       </c>
       <c r="K4">
-        <v>1100000</v>
+        <v>2853218</v>
       </c>
       <c r="L4">
-        <v>700000</v>
+        <v>175023</v>
       </c>
       <c r="M4">
-        <v>1200000</v>
+        <v>1065843.7</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1406,58 +1620,58 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J5">
-        <v>3500000</v>
+        <v>1482412</v>
       </c>
       <c r="K5">
-        <v>1200000</v>
+        <v>522697</v>
       </c>
       <c r="L5">
-        <v>900000</v>
+        <v>1809857</v>
       </c>
       <c r="M5">
-        <v>1400000</v>
+        <v>778729.3</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1465,58 +1679,58 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J6">
-        <v>4000000</v>
+        <v>4990935</v>
       </c>
       <c r="K6">
-        <v>1300000</v>
+        <v>4111752</v>
       </c>
       <c r="L6">
-        <v>1100000</v>
+        <v>37396</v>
       </c>
       <c r="M6">
-        <v>1600000</v>
+        <v>875443.4</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1524,58 +1738,58 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J7">
-        <v>4500000</v>
+        <v>3129728</v>
       </c>
       <c r="K7">
-        <v>1400000</v>
+        <v>781234</v>
       </c>
       <c r="L7">
-        <v>1300000</v>
+        <v>873935</v>
       </c>
       <c r="M7">
-        <v>1800000</v>
+        <v>2261100.5</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1583,58 +1797,58 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J8">
-        <v>5000000</v>
+        <v>4582473</v>
       </c>
       <c r="K8">
-        <v>1500000</v>
+        <v>4208801</v>
       </c>
       <c r="L8">
-        <v>1500000</v>
+        <v>544837</v>
       </c>
       <c r="M8">
-        <v>2000000</v>
+        <v>319188.3</v>
       </c>
       <c r="N8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1642,58 +1856,55 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="J9">
-        <v>5500000</v>
+        <v>4344682</v>
       </c>
       <c r="K9">
-        <v>1600000</v>
+        <v>1001621</v>
       </c>
       <c r="L9">
-        <v>1700000</v>
+        <v>734944</v>
       </c>
       <c r="M9">
-        <v>2200000</v>
+        <v>3269566.6</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1701,58 +1912,58 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J10">
-        <v>6000000</v>
+        <v>4625416</v>
       </c>
       <c r="K10">
-        <v>1700000</v>
+        <v>575815</v>
       </c>
       <c r="L10">
-        <v>1900000</v>
+        <v>502479</v>
       </c>
       <c r="M10">
-        <v>2400000</v>
+        <v>3999353.1</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1760,58 +1971,58 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="J11">
-        <v>6500000</v>
+        <v>1204708</v>
       </c>
       <c r="K11">
-        <v>1800000</v>
+        <v>791908</v>
       </c>
       <c r="L11">
-        <v>2100000</v>
+        <v>1053535</v>
       </c>
       <c r="M11">
-        <v>2600000</v>
+        <v>307446.5</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="Q11" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1819,58 +2030,58 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="J12">
-        <v>7000000</v>
+        <v>3004210</v>
       </c>
       <c r="K12">
-        <v>1900000</v>
+        <v>1106381</v>
       </c>
       <c r="L12">
-        <v>2300000</v>
+        <v>1183856</v>
       </c>
       <c r="M12">
-        <v>2800000</v>
+        <v>1779443.4</v>
       </c>
       <c r="N12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="Q12" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1878,58 +2089,55 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="J13">
-        <v>7500000</v>
+        <v>1638966</v>
       </c>
       <c r="K13">
-        <v>2000000</v>
+        <v>597679</v>
       </c>
       <c r="L13">
-        <v>2500000</v>
+        <v>234333</v>
       </c>
       <c r="M13">
-        <v>3000000</v>
+        <v>1017853.7</v>
       </c>
       <c r="N13">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="Q13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R13" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="S13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1937,58 +2145,58 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="J14">
-        <v>8000000</v>
+        <v>1426883</v>
       </c>
       <c r="K14">
-        <v>2100000</v>
+        <v>761563</v>
       </c>
       <c r="L14">
-        <v>2700000</v>
+        <v>1341343</v>
       </c>
       <c r="M14">
-        <v>3200000</v>
+        <v>531185.69999999995</v>
       </c>
       <c r="N14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1996,58 +2204,58 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="J15">
-        <v>8500000</v>
+        <v>4144173</v>
       </c>
       <c r="K15">
-        <v>2200000</v>
+        <v>1171645</v>
       </c>
       <c r="L15">
-        <v>2900000</v>
+        <v>1878151</v>
       </c>
       <c r="M15">
-        <v>3400000</v>
+        <v>2784712.9</v>
       </c>
       <c r="N15">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="R15" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -2055,58 +2263,55 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="J16">
-        <v>9000000</v>
+        <v>3070583</v>
       </c>
       <c r="K16">
-        <v>2300000</v>
+        <v>2540883</v>
       </c>
       <c r="L16">
-        <v>3100000</v>
+        <v>654685</v>
       </c>
       <c r="M16">
-        <v>3600000</v>
+        <v>464231.5</v>
       </c>
       <c r="N16">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="Q16" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -2114,58 +2319,58 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="J17">
-        <v>9500000</v>
+        <v>2362972</v>
       </c>
       <c r="K17">
-        <v>2400000</v>
+        <v>2145759</v>
       </c>
       <c r="L17">
-        <v>3300000</v>
+        <v>1774167</v>
       </c>
       <c r="M17">
-        <v>3800000</v>
+        <v>39796.299999999988</v>
       </c>
       <c r="N17">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="Q17" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="R17" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="S17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -2173,58 +2378,58 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="J18">
-        <v>10000000</v>
+        <v>1384420</v>
       </c>
       <c r="K18">
-        <v>2500000</v>
+        <v>566078</v>
       </c>
       <c r="L18">
-        <v>3500000</v>
+        <v>603781</v>
       </c>
       <c r="M18">
-        <v>4000000</v>
+        <v>757963.9</v>
       </c>
       <c r="N18">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="Q18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="R18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -2232,58 +2437,58 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19">
+        <v>4965900</v>
+      </c>
+      <c r="K19">
+        <v>3921568</v>
+      </c>
+      <c r="L19">
+        <v>484679</v>
+      </c>
+      <c r="M19">
+        <v>995864.1</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
         <v>121</v>
       </c>
-      <c r="I19" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19">
-        <v>10500000</v>
-      </c>
-      <c r="K19">
-        <v>2600000</v>
-      </c>
-      <c r="L19">
-        <v>3700000</v>
-      </c>
-      <c r="M19">
-        <v>4200000</v>
-      </c>
-      <c r="N19">
-        <v>19</v>
-      </c>
-      <c r="O19" t="s">
-        <v>35</v>
-      </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="Q19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="S19" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2291,58 +2496,58 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="J20">
-        <v>11000000</v>
+        <v>4737481</v>
       </c>
       <c r="K20">
-        <v>2700000</v>
+        <v>2585596</v>
       </c>
       <c r="L20">
-        <v>3900000</v>
+        <v>1812612</v>
       </c>
       <c r="M20">
-        <v>4400000</v>
+        <v>1970623.8</v>
       </c>
       <c r="N20">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="Q20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R20" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2350,58 +2555,55 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="J21">
-        <v>11500000</v>
+        <v>2255326</v>
       </c>
       <c r="K21">
-        <v>2800000</v>
+        <v>1691757</v>
       </c>
       <c r="L21">
-        <v>4100000</v>
+        <v>1102988</v>
       </c>
       <c r="M21">
-        <v>4600000</v>
+        <v>453270.2</v>
       </c>
       <c r="N21">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="Q21" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="S21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2409,58 +2611,58 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="J22">
-        <v>12000000</v>
+        <v>5103977</v>
       </c>
       <c r="K22">
-        <v>2900000</v>
+        <v>3114131</v>
       </c>
       <c r="L22">
-        <v>4300000</v>
+        <v>863846</v>
       </c>
       <c r="M22">
-        <v>4800000</v>
+        <v>1903461.4</v>
       </c>
       <c r="N22">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="O22" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="Q22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S22" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2468,58 +2670,58 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="I23" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="J23">
-        <v>12500000</v>
+        <v>2017301</v>
       </c>
       <c r="K23">
-        <v>3000000</v>
+        <v>1468045</v>
       </c>
       <c r="L23">
-        <v>4500000</v>
+        <v>738879</v>
       </c>
       <c r="M23">
-        <v>5000000</v>
+        <v>475368.1</v>
       </c>
       <c r="N23">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="O23" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="Q23" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="R23" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="S23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2527,58 +2729,55 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="J24">
-        <v>13000000</v>
+        <v>2456402</v>
       </c>
       <c r="K24">
-        <v>3100000</v>
+        <v>2033637</v>
       </c>
       <c r="L24">
-        <v>4700000</v>
+        <v>297484</v>
       </c>
       <c r="M24">
-        <v>5200000</v>
+        <v>393016.6</v>
       </c>
       <c r="N24">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="Q24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2586,58 +2785,58 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="J25">
-        <v>13500000</v>
+        <v>1802567</v>
       </c>
       <c r="K25">
-        <v>3200000</v>
+        <v>1288984</v>
       </c>
       <c r="L25">
-        <v>4900000</v>
+        <v>170077</v>
       </c>
       <c r="M25">
-        <v>5400000</v>
+        <v>496575.3</v>
       </c>
       <c r="N25">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="Q25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -2645,58 +2844,55 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="J26">
-        <v>14000000</v>
+        <v>1432783</v>
       </c>
       <c r="K26">
-        <v>3300000</v>
+        <v>1217680</v>
       </c>
       <c r="L26">
-        <v>5100000</v>
+        <v>1512319</v>
       </c>
       <c r="M26">
-        <v>5600000</v>
+        <v>63871.100000000013</v>
       </c>
       <c r="N26">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="Q26" t="s">
-        <v>38</v>
-      </c>
-      <c r="R26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -2704,58 +2900,58 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="J27">
-        <v>14500000</v>
+        <v>3618126</v>
       </c>
       <c r="K27">
-        <v>3400000</v>
+        <v>2689451</v>
       </c>
       <c r="L27">
-        <v>5300000</v>
+        <v>965802</v>
       </c>
       <c r="M27">
-        <v>5800000</v>
+        <v>832094.8</v>
       </c>
       <c r="N27">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="Q27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R27" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="S27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -2763,58 +2959,58 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" t="s">
         <v>239</v>
       </c>
-      <c r="D28" t="s">
+      <c r="J28">
+        <v>4307648</v>
+      </c>
+      <c r="K28">
+        <v>3877699</v>
+      </c>
+      <c r="L28">
+        <v>284146</v>
+      </c>
+      <c r="M28">
+        <v>401534.4</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
         <v>240</v>
       </c>
-      <c r="E28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" t="s">
-        <v>167</v>
-      </c>
-      <c r="J28">
-        <v>15000000</v>
-      </c>
-      <c r="K28">
-        <v>3500000</v>
-      </c>
-      <c r="L28">
-        <v>5500000</v>
-      </c>
-      <c r="M28">
-        <v>6000000</v>
-      </c>
-      <c r="N28">
-        <v>28</v>
-      </c>
-      <c r="O28" t="s">
-        <v>34</v>
-      </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="Q28" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="R28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2822,58 +3018,58 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="I29" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="J29">
-        <v>15500000</v>
+        <v>3150964</v>
       </c>
       <c r="K29">
-        <v>3600000</v>
+        <v>2854648</v>
       </c>
       <c r="L29">
-        <v>5700000</v>
+        <v>1961609</v>
       </c>
       <c r="M29">
-        <v>6200000</v>
+        <v>100155.1</v>
       </c>
       <c r="N29">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="Q29" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="R29" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="S29" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -2881,58 +3077,58 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="C30" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="I30" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="J30">
-        <v>16000000</v>
+        <v>1771067</v>
       </c>
       <c r="K30">
-        <v>3700000</v>
+        <v>1254018</v>
       </c>
       <c r="L30">
-        <v>5900000</v>
+        <v>79282</v>
       </c>
       <c r="M30">
-        <v>6400000</v>
+        <v>509120.8</v>
       </c>
       <c r="N30">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="Q30" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="R30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S30" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -2940,58 +3136,55 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="H31" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="J31">
-        <v>16500000</v>
+        <v>4741560</v>
       </c>
       <c r="K31">
-        <v>3800000</v>
+        <v>1799948</v>
       </c>
       <c r="L31">
-        <v>6100000</v>
+        <v>1674015</v>
       </c>
       <c r="M31">
-        <v>6600000</v>
+        <v>2774210.5</v>
       </c>
       <c r="N31">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="Q31" t="s">
-        <v>39</v>
-      </c>
-      <c r="R31" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -2999,65 +3192,586 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="I32" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="J32">
-        <v>17000000</v>
+        <v>2990858</v>
       </c>
       <c r="K32">
-        <v>3900000</v>
+        <v>2772731</v>
       </c>
       <c r="L32">
-        <v>6300000</v>
+        <v>1925843</v>
       </c>
       <c r="M32">
-        <v>6800000</v>
+        <v>25542.699999999979</v>
       </c>
       <c r="N32">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="Q32" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33">
+        <v>3008397</v>
+      </c>
+      <c r="K33">
+        <v>925103</v>
+      </c>
+      <c r="L33">
+        <v>789837</v>
+      </c>
+      <c r="M33">
+        <v>2004310.3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>271</v>
+      </c>
+      <c r="P33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>114</v>
+      </c>
+      <c r="S33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" t="s">
+        <v>284</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34">
+        <v>3836129</v>
+      </c>
+      <c r="K34">
+        <v>2612942</v>
+      </c>
+      <c r="L34">
+        <v>610082</v>
+      </c>
+      <c r="M34">
+        <v>1162178.8</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>286</v>
+      </c>
+      <c r="P34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>114</v>
+      </c>
+      <c r="R34" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
         <v>38</v>
       </c>
-      <c r="R32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S32" t="s">
-        <v>42</v>
+      <c r="H35" t="s">
+        <v>290</v>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35">
+        <v>4040586</v>
+      </c>
+      <c r="K35">
+        <v>768601</v>
+      </c>
+      <c r="L35">
+        <v>1095361</v>
+      </c>
+      <c r="M35">
+        <v>3162448.9</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35" t="s">
+        <v>292</v>
+      </c>
+      <c r="P35" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>268</v>
+      </c>
+      <c r="H36" t="s">
+        <v>298</v>
+      </c>
+      <c r="I36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36">
+        <v>3112577</v>
+      </c>
+      <c r="K36">
+        <v>937452</v>
+      </c>
+      <c r="L36">
+        <v>1100795</v>
+      </c>
+      <c r="M36">
+        <v>2065045.5</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>300</v>
+      </c>
+      <c r="P36" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>114</v>
+      </c>
+      <c r="R36" t="s">
+        <v>62</v>
+      </c>
+      <c r="S36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" t="s">
+        <v>304</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
+        <v>305</v>
+      </c>
+      <c r="I37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37">
+        <v>4226228</v>
+      </c>
+      <c r="K37">
+        <v>1587050</v>
+      </c>
+      <c r="L37">
+        <v>701410</v>
+      </c>
+      <c r="M37">
+        <v>2569037</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>307</v>
+      </c>
+      <c r="P37" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>114</v>
+      </c>
+      <c r="R37" t="s">
+        <v>62</v>
+      </c>
+      <c r="S37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" t="s">
+        <v>310</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38">
+        <v>2888176</v>
+      </c>
+      <c r="K38">
+        <v>2063494</v>
+      </c>
+      <c r="L38">
+        <v>634109</v>
+      </c>
+      <c r="M38">
+        <v>761271.1</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>313</v>
+      </c>
+      <c r="P38" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>62</v>
+      </c>
+      <c r="R38" t="s">
+        <v>72</v>
+      </c>
+      <c r="S38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" t="s">
+        <v>318</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>319</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39">
+        <v>4331508</v>
+      </c>
+      <c r="K39">
+        <v>3319364</v>
+      </c>
+      <c r="L39">
+        <v>1761491</v>
+      </c>
+      <c r="M39">
+        <v>835994.9</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+      <c r="O39" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>114</v>
+      </c>
+      <c r="R39" t="s">
+        <v>44</v>
+      </c>
+      <c r="S39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" t="s">
+        <v>324</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" t="s">
+        <v>326</v>
+      </c>
+      <c r="I40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40">
+        <v>2583990</v>
+      </c>
+      <c r="K40">
+        <v>977525</v>
+      </c>
+      <c r="L40">
+        <v>483597</v>
+      </c>
+      <c r="M40">
+        <v>1558105.3</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>328</v>
+      </c>
+      <c r="P40" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" t="s">
+        <v>44</v>
+      </c>
+      <c r="S40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>330</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
+      <c r="D41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" t="s">
+        <v>334</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41">
+        <v>1442402</v>
+      </c>
+      <c r="K41">
+        <v>842596</v>
+      </c>
+      <c r="L41">
+        <v>551830</v>
+      </c>
+      <c r="M41">
+        <v>544623</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>336</v>
+      </c>
+      <c r="P41" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>62</v>
+      </c>
+      <c r="R41" t="s">
+        <v>72</v>
+      </c>
+      <c r="S41" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{68CA3058-8209-4A52-992B-68D5AF9087F6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>